--- a/CH-171 Table Transformation.xlsx
+++ b/CH-171 Table Transformation.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BA8D9F-7B13-48A4-BF8A-DD4817B2B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0627D5-65B9-4393-906C-EC7B2E8A8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="60">
   <si>
     <t>Result</t>
   </si>
@@ -213,6 +237,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>I like this technique</t>
   </si>
 </sst>
 </file>
@@ -499,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -589,11 +616,246 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -888,11 +1150,361 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07549281-42C7-4276-918C-C85F00E9AA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2606040" y="1786890"/>
+          <a:ext cx="3834765" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Challenge 171:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Table Transformation!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Designed by: @</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>Enrico Mendiola</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Transform the question structure into the result structure.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C66E7F2-5080-403B-886F-88140E738924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2606040" y="1786890"/>
+          <a:ext cx="3834765" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Challenge 171:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Table Transformation!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Designed by: @</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>Enrico Mendiola</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Transform the question structure into the result structure.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}" name="Data" displayName="Data" ref="C2:C148" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}" name="Data" displayName="Data" ref="C2:C148" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="C2:C148" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E9D2B9E8-BF22-47EC-9F78-4895D7ECD803}" name="Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E9D2B9E8-BF22-47EC-9F78-4895D7ECD803}" name="Name" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18040784-CA3D-450A-AB53-DEADF613DE0C}" name="Data3" displayName="Data3" ref="C2:C148" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="C2:C148" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E0201FCA-36BD-42B7-947F-EED45D3E23B6}" name="Name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B108D68-DA80-4EFD-978F-6B750F6FE25E}" name="Data4" displayName="Data4" ref="C2:C148" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="C2:C148" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DEC8CFC8-DB5F-4D78-8098-DDCDC9BAF878}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1162,12 +1774,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4C31B030-1950-4A38-BED6-78F0C262664E}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1177,6 +1816,8 @@
     <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
     <col min="5" max="7" width="12.59765625" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,563 +2025,865 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="10">
         <v>45628.083333333336</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="10">
         <v>45659.083333333336</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="E23"/>
       <c r="F23"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="10">
         <v>45637.25</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="10">
         <v>45638.25</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62" s="10">
         <v>45638.666666666664</v>
       </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C82" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C83" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C85" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C88" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C92" s="10">
         <v>45637.234722222223</v>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C93" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C94" s="10">
         <v>45638.234722222223</v>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C102" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C103" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C122" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C124" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C125" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C126" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C127" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C128" s="10" t="s">
         <v>46</v>
       </c>
@@ -2053,6 +2996,2843 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F99BB8A-5655-4795-957B-FCA7A2A8D343}">
+  <dimension ref="B1:M148"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
+    <col min="5" max="7" width="12.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="J1" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45628.083333333336</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45637.25</v>
+      </c>
+      <c r="G5" s="14">
+        <v>45638.25</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="G7" s="14">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G8" s="14">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G9" s="17">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
+        <v>45628.083333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4" t="str" cm="1">
+        <f t="array" ref="E23:F95">_xlfn.WRAPROWS(Data3[Name],2)</f>
+        <v>ABC</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Process</v>
+      </c>
+      <c r="G23" s="4" t="str" cm="1">
+        <f t="array" ref="G23:H46">_xlfn._xlws.FILTER(E23:F95,ISNUMBER(E23:E95)*(E23:E95&lt;100)-1)</f>
+        <v>ABC</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Process</v>
+      </c>
+      <c r="J23" s="22" t="str" cm="1">
+        <f t="array" ref="J23:J28">_xlfn._xlws.FILTER(G23:G46,H23:H46="Process")</f>
+        <v>ABC</v>
+      </c>
+      <c r="K23" s="19" t="str" cm="1">
+        <f t="array" ref="K23:M28">_xlfn.DROP(_xlfn.WRAPROWS(H23:H46,4),,1)</f>
+        <v>Not available</v>
+      </c>
+      <c r="L23" s="20" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="M23" s="21" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>PDL</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="J24" s="13" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="K24" s="14">
+        <v>45628.083333333336</v>
+      </c>
+      <c r="L24" s="14">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="M24" s="15" t="str">
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <v>PDL</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="J25" s="13" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="K25" s="14">
+        <v>45637.25</v>
+      </c>
+      <c r="L25" s="14">
+        <v>45638.25</v>
+      </c>
+      <c r="M25" s="15" t="str">
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="J26" s="13" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="K26" s="14" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="L26" s="14">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="M26" s="15" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Process</v>
+      </c>
+      <c r="J27" s="13" t="str">
+        <v>UPL</v>
+      </c>
+      <c r="K27" s="14">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="L27" s="14">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="M27" s="15" t="str">
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="H28">
+        <v>45628.083333333336</v>
+      </c>
+      <c r="J28" s="13" t="str">
+        <v>MNB</v>
+      </c>
+      <c r="K28" s="14">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="L28" s="14">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="M28" s="15" t="str">
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <v>Process</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="H29">
+        <v>45659.083333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <v>a</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="F31" s="4">
+        <v>45628.083333333336</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Process</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="H32">
+        <v>45637.25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <v>Success</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="H33">
+        <v>45638.25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <v>Process</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="10">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="str">
+        <v>task</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Process</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <v>aa</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <v>dd</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="H37">
+        <v>45638.666666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="10">
+        <v>45637.25</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <v>ee</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <v>aad</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <v>UPL</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Process</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="10">
+        <v>45638.25</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45637.25</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="H40">
+        <v>45637.234722222223</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45638.25</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="H41">
+        <v>45638.234722222223</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <v>Running</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <v>Process</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <v>MNB</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Process</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <v>sg</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="H44">
+        <v>45637.347222222219</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <v>ha</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="H45">
+        <v>45637.378472222219</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <v>hj</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <v>jk</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <v>jy</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <v>ui</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>es</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45638.666666666664</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="10">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>UPL</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>Process</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <v>jd</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <v>ie</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="10">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <v>wq</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <v>lo</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <v>er</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v>hk</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="4">
+        <v>4</v>
+      </c>
+      <c r="F61" s="4" t="str">
+        <v>kk</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="10">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v>lo</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <v>rt</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v>ui</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <v>op</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v>ll</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="F67" s="4">
+        <v>45637.234722222223</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="F68" s="4">
+        <v>45638.234722222223</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F69" s="4" t="str">
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>MNB</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v>Process</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <v>df</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>gd</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <v>fe</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <v>wr</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4" t="str">
+        <v>hjk</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="4">
+        <v>4</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <v>jk</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="10">
+        <v>3</v>
+      </c>
+      <c r="E77" s="4">
+        <v>5</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <v>ky</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="4">
+        <v>6</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v>et</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="10">
+        <v>4</v>
+      </c>
+      <c r="E79" s="4">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="str">
+        <v>jk</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="4">
+        <v>8</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v>kl</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="10">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4">
+        <v>9</v>
+      </c>
+      <c r="F81" s="4" t="str">
+        <v>as</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="4">
+        <v>10</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v>sd</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="10">
+        <v>6</v>
+      </c>
+      <c r="E83" s="4">
+        <v>11</v>
+      </c>
+      <c r="F83" s="4" t="str">
+        <v>jj</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="4">
+        <v>12</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v>fh</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="10">
+        <v>7</v>
+      </c>
+      <c r="E85" s="4">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4" t="str">
+        <v>sd</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="4">
+        <v>14</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v>dsa</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="10">
+        <v>8</v>
+      </c>
+      <c r="E87" s="4">
+        <v>15</v>
+      </c>
+      <c r="F87" s="4" t="str">
+        <v>hj</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="4">
+        <v>16</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <v>gd</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="10">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4">
+        <v>17</v>
+      </c>
+      <c r="F89" s="4" t="str">
+        <v>xzc</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="4">
+        <v>18</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v>ra</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="4">
+        <v>19</v>
+      </c>
+      <c r="F91" s="4" t="str">
+        <v>yr</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="10">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="E92" s="4">
+        <v>20</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v>kyh</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <v>From</v>
+      </c>
+      <c r="F93" s="4">
+        <v>45637.347222222219</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="10">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <v>To</v>
+      </c>
+      <c r="F94" s="4">
+        <v>45637.378472222219</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F95" s="4" t="str">
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="10">
+        <v>45637.347222222219</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="10">
+        <v>45637.378472222219</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F54D049-4A8A-4664-9DF4-B063A483FA82}">
+  <dimension ref="B1:J148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
+    <col min="5" max="7" width="12.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="J1" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45628.083333333336</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45637.25</v>
+      </c>
+      <c r="G5" s="14">
+        <v>45638.25</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="G7" s="14">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G8" s="14">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G9" s="17">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
+        <v>45628.083333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="31" t="str" cm="1">
+        <f t="array" ref="E24:H29">_xlfn.LET(
+    _xlpm.d, C2:C148,
+    _xlpm.s, _xlfn.SEQUENCE(ROWS(_xlpm.d)),
+    _xlpm.r, _xlfn.DROP(
+        _xlfn.REDUCE(
+            "",
+            {"From";"To";"Status"},
+            _xlfn.LAMBDA(_xlpm.x,_xlpm.y, _xlfn.HSTACK(_xlpm.x, _xlfn.LET(_xlpm.f, FIND(_xlpm.y, _xlpm.d), INDEX(_xlpm.d, _xlfn._xlws.FILTER(_xlpm.s, ISNUMBER(_xlpm.f)) + 1))))
+        ),
+        ,
+        1
+    ),
+    _xlfn.HSTACK(INDEX(_xlpm.d, _xlfn._xlws.FILTER(_xlpm.s, ISNUMBER(FIND("Process", _xlpm.d))) - 1), _xlpm.r)
+)</f>
+        <v>ABC</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="F25">
+        <v>45628.083333333336</v>
+      </c>
+      <c r="G25">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="F26">
+        <v>45637.25</v>
+      </c>
+      <c r="G26">
+        <v>45638.25</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Not available</v>
+      </c>
+      <c r="G27">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="str">
+        <v>UPL</v>
+      </c>
+      <c r="F28">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="G28">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MNB</v>
+      </c>
+      <c r="F29">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G29">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="10">
+        <v>3</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="10">
+        <v>45637.25</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="10">
+        <v>45638.25</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="10">
+        <v>2</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="10">
+        <v>2</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="10">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="10">
+        <v>3</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="10">
+        <v>4</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="10">
+        <v>5</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="10">
+        <v>6</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="10">
+        <v>7</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="10">
+        <v>8</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="10">
+        <v>9</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="10">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="10">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="10">
+        <v>1</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="10">
+        <v>3</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="10">
+        <v>3</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="10">
+        <v>4</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="10">
+        <v>5</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="10">
+        <v>6</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="10">
+        <v>7</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="10">
+        <v>8</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="10">
+        <v>9</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="10">
+        <v>45637.347222222219</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="10">
+        <v>45637.378472222219</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/CH-171 Table Transformation.xlsx
+++ b/CH-171 Table Transformation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0627D5-65B9-4393-906C-EC7B2E8A8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38AC69-86FD-4A0E-8B07-0E17BEBA5C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="61">
   <si>
     <t>Result</t>
   </si>
@@ -240,6 +241,9 @@
   </si>
   <si>
     <t>I like this technique</t>
+  </si>
+  <si>
+    <t>I thought about this. Interesting approach with offset. Check out the use of undefined.</t>
   </si>
 </sst>
 </file>
@@ -623,7 +627,123 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1480,31 +1600,206 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDCB358-8142-4636-8471-F6C4B0BF4B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2606040" y="1786890"/>
+          <a:ext cx="3834765" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Challenge 171:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Table Transformation!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Designed by: @</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:rPr>
+            <a:t>Enrico Mendiola</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Transform the question structure into the result structure.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}" name="Data" displayName="Data" ref="C2:C148" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}" name="Data" displayName="Data" ref="C2:C148" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="C2:C148" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E9D2B9E8-BF22-47EC-9F78-4895D7ECD803}" name="Name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{E9D2B9E8-BF22-47EC-9F78-4895D7ECD803}" name="Name" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18040784-CA3D-450A-AB53-DEADF613DE0C}" name="Data3" displayName="Data3" ref="C2:C148" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18040784-CA3D-450A-AB53-DEADF613DE0C}" name="Data3" displayName="Data3" ref="C2:C148" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
   <autoFilter ref="C2:C148" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E0201FCA-36BD-42B7-947F-EED45D3E23B6}" name="Name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E0201FCA-36BD-42B7-947F-EED45D3E23B6}" name="Name" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B108D68-DA80-4EFD-978F-6B750F6FE25E}" name="Data4" displayName="Data4" ref="C2:C148" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B108D68-DA80-4EFD-978F-6B750F6FE25E}" name="Data4" displayName="Data4" ref="C2:C148" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="C2:C148" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DEC8CFC8-DB5F-4D78-8098-DDCDC9BAF878}" name="Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DEC8CFC8-DB5F-4D78-8098-DDCDC9BAF878}" name="Name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{267D97BF-B4FF-4C44-B813-EAC86A3374E6}" name="Data5" displayName="Data5" ref="C2:C148" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="C2:C148" xr:uid="{E4CF8740-D44D-4159-9A33-0E87A0950599}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7A952489-0508-43ED-97B9-0E8AE9F67767}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4576,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F54D049-4A8A-4664-9DF4-B063A483FA82}">
   <dimension ref="B1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4968,6 +5263,1308 @@
       <c r="E31" t="s">
         <v>59</v>
       </c>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="10">
+        <v>3</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="10">
+        <v>45637.25</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="10">
+        <v>45638.25</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="10">
+        <v>2</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="10">
+        <v>2</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="10">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="10">
+        <v>3</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="10">
+        <v>4</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="10">
+        <v>5</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="10">
+        <v>6</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="10">
+        <v>7</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="10">
+        <v>8</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="10">
+        <v>9</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="10">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="10">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="10">
+        <v>1</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="10">
+        <v>3</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="10">
+        <v>3</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="10">
+        <v>4</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="10">
+        <v>5</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="10">
+        <v>6</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="10">
+        <v>7</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="10">
+        <v>8</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="10">
+        <v>9</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="10">
+        <v>45637.347222222219</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="10">
+        <v>45637.378472222219</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0740B4E-1411-406E-8BD4-4761167FC491}">
+  <dimension ref="B1:J148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
+    <col min="5" max="7" width="12.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="J1" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45628.083333333336</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45637.25</v>
+      </c>
+      <c r="G5" s="14">
+        <v>45638.25</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14">
+        <v>45638.666666666664</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45637.234722222223</v>
+      </c>
+      <c r="G7" s="14">
+        <v>45638.234722222223</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G8" s="14">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G9" s="17">
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
+        <v>45628.083333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <v>45659.083333333336</v>
+      </c>
+      <c r="E22" t="str" cm="1">
+        <f t="array" aca="1" ref="E22:H28" ca="1">_xlfn.LET(
+    _xlpm.m, _xlfn.LAMBDA(_xlpm.c,_xlpm.d, _xlfn.TOCOL(_xlfn.MAP(_xlpm.c, _xlfn.LAMBDA(_xlpm.a, IF(_xlpm.a = "from", OFFSET(_xlpm.a, _xlpm.d, 0), 1 / 0))), 3)),
+    _xlpm.x, _xlfn.DROP(_xlfn.VSTACK(C3, _xlpm.m(C4:C148, 6)), -1),
+    _xlpm.y, _xlpm.m(C4:C148, 1),
+    _xlpm.z, _xlpm.m(C4:C148, 3),
+    _xlpm.w, _xlpm.m(C4:C148, 5),
+    _xlpm.t, _xlfn.HSTACK(_xlpm.x, _xlpm.y, _xlpm.z, _xlpm.w),
+    _xlpm.n, _xlfn.VSTACK(_xlpm.t, _xlfn.TAKE(_xlpm.t, -1)),
+    _xlpm.n
+)</f>
+        <v>ABC</v>
+      </c>
+      <c r="F22" t="str">
+        <f ca="1"/>
+        <v>Not available</v>
+      </c>
+      <c r="G22" t="str">
+        <f ca="1"/>
+        <v>Not available</v>
+      </c>
+      <c r="H22" t="str">
+        <f ca="1"/>
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="str">
+        <f ca="1"/>
+        <v>CDC</v>
+      </c>
+      <c r="F23">
+        <f ca="1"/>
+        <v>45628.083333333336</v>
+      </c>
+      <c r="G23">
+        <f ca="1"/>
+        <v>45659.083333333336</v>
+      </c>
+      <c r="H23" t="str">
+        <f ca="1"/>
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="str">
+        <f ca="1"/>
+        <v>XYZ</v>
+      </c>
+      <c r="F24">
+        <f ca="1"/>
+        <v>45637.25</v>
+      </c>
+      <c r="G24">
+        <f ca="1"/>
+        <v>45638.25</v>
+      </c>
+      <c r="H24" t="str">
+        <f ca="1"/>
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="str">
+        <f ca="1"/>
+        <v>LMN</v>
+      </c>
+      <c r="F25" t="str">
+        <f ca="1"/>
+        <v>Not available</v>
+      </c>
+      <c r="G25">
+        <f ca="1"/>
+        <v>45638.666666666664</v>
+      </c>
+      <c r="H25" t="str">
+        <f ca="1"/>
+        <v>Not available</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="str">
+        <f ca="1"/>
+        <v>UPL</v>
+      </c>
+      <c r="F26">
+        <f ca="1"/>
+        <v>45637.234722222223</v>
+      </c>
+      <c r="G26">
+        <f ca="1"/>
+        <v>45638.234722222223</v>
+      </c>
+      <c r="H26" t="str">
+        <f ca="1"/>
+        <v>Running</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <f ca="1"/>
+        <v>MNB</v>
+      </c>
+      <c r="F27">
+        <f ca="1"/>
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G27">
+        <f ca="1"/>
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H27" t="str">
+        <f ca="1"/>
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="str">
+        <f ca="1"/>
+        <v>MNB</v>
+      </c>
+      <c r="F28">
+        <f ca="1"/>
+        <v>45637.347222222219</v>
+      </c>
+      <c r="G28">
+        <f ca="1"/>
+        <v>45637.378472222219</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1"/>
+        <v>Success</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
     </row>

--- a/CH-171 Table Transformation.xlsx
+++ b/CH-171 Table Transformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38AC69-86FD-4A0E-8B07-0E17BEBA5C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EC664-26C2-4FAA-BF22-913D6E9C6A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="62">
   <si>
     <t>Result</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>I thought about this. Interesting approach with offset. Check out the use of undefined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is easily made into a single function. </t>
   </si>
 </sst>
 </file>
@@ -3304,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F99BB8A-5655-4795-957B-FCA7A2A8D343}">
   <dimension ref="B1:M148"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3776,6 +3779,9 @@
       </c>
       <c r="H30" t="str">
         <v>Success</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
@@ -6141,8 +6147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0740B4E-1411-406E-8BD4-4761167FC491}">
   <dimension ref="B1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
